--- a/data/excel_files_reduced/test_excel_9_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_9_reduced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{370DD57F-4BDC-9E4E-B3EA-781A5FDABCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF107F2-C004-A14F-95B5-9385F1A4ECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Profit</t>
-  </si>
-  <si>
-    <t>Cumulative Profit</t>
   </si>
   <si>
     <t>Average Expenses</t>
@@ -358,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1001"/>
+  <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -370,21 +367,19 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" customWidth="1"/>
-    <col min="18" max="26" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,32 +404,26 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45395</v>
       </c>
@@ -448,54 +437,46 @@
         <v>800</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E11" si="0">B2-C2-D2</f>
+        <f t="shared" ref="E2:E3" si="0">B2-C2-D2</f>
         <v>1000</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(E2)</f>
+        <f>AVERAGE(C2:C2)</f>
+        <v>3200</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IF(E2&gt;0, "Profit", "Loss")</f>
+        <v>Profit</v>
+      </c>
+      <c r="H2" s="2">
+        <f>ROUND(E2, -2)</f>
         <v>1000</v>
       </c>
-      <c r="G2" s="2">
-        <f>AVERAGE(C2)</f>
-        <v>3200</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H11" si="1">IF(E2&gt;0, "Profit", "Loss")</f>
-        <v>Profit</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I11" si="2">ROUND(E2, -2)</f>
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUM(B:B)</f>
+        <v>9800</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:Q2" si="3">SUM(B:B)</f>
-        <v>9800</v>
+        <f>SUM(C:C)</f>
+        <v>6200</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="3"/>
+        <f>SUM(D:D)</f>
+        <v>1650</v>
+      </c>
+      <c r="N2" s="2">
+        <f>SUM(E:E)</f>
+        <v>1950</v>
+      </c>
+      <c r="O2" s="2">
+        <f>SUM(F:F)</f>
         <v>6200</v>
       </c>
-      <c r="N2" s="2">
-        <f t="shared" si="3"/>
-        <v>1650</v>
-      </c>
-      <c r="O2" s="2">
-        <f t="shared" si="3"/>
-        <v>1950</v>
-      </c>
-      <c r="P2" s="2">
-        <f t="shared" si="3"/>
-        <v>2950</v>
-      </c>
-      <c r="Q2" s="2">
-        <f t="shared" si="3"/>
-        <v>6300</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45394</v>
       </c>
@@ -513,23 +494,19 @@
         <v>950</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(E2:E3)</f>
-        <v>1950</v>
-      </c>
-      <c r="G3" s="2">
-        <f>AVERAGE(C2:C3)</f>
-        <v>3100</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(C3:C3)</f>
+        <v>3000</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IF(E3&gt;0, "Profit", "Loss")</f>
         <v>Profit</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" si="2"/>
+      <c r="H3" s="2">
+        <f>ROUND(E3, -2)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -538,9 +515,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -549,9 +525,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -560,9 +535,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -571,9 +545,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -582,9 +555,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -593,9 +565,8 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -604,9 +575,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -615,7 +585,6 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
